--- a/论文/timedata.xlsx
+++ b/论文/timedata.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -468,19 +468,19 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -494,13 +494,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="J2">
         <v>55</v>
@@ -517,19 +517,19 @@
         <v>62689</v>
       </c>
       <c r="D3">
+        <v>6322</v>
+      </c>
+      <c r="E3">
         <v>39658</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>615</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>6158</v>
+      </c>
+      <c r="H3">
         <v>1888</v>
-      </c>
-      <c r="G3">
-        <v>6322</v>
-      </c>
-      <c r="H3">
-        <v>6158</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -543,19 +543,19 @@
         <v>48033</v>
       </c>
       <c r="D4">
+        <v>5829</v>
+      </c>
+      <c r="E4">
         <v>46719</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>492</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>4557</v>
+      </c>
+      <c r="H4">
         <v>2052</v>
-      </c>
-      <c r="G4">
-        <v>5829</v>
-      </c>
-      <c r="H4">
-        <v>4557</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -569,19 +569,19 @@
         <v>80178</v>
       </c>
       <c r="D5">
+        <v>5911</v>
+      </c>
+      <c r="E5">
         <v>50044</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>657</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>5255</v>
+      </c>
+      <c r="H5">
         <v>1765</v>
-      </c>
-      <c r="G5">
-        <v>5911</v>
-      </c>
-      <c r="H5">
-        <v>5255</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -595,19 +595,19 @@
         <v>71598</v>
       </c>
       <c r="D6">
+        <v>22949</v>
+      </c>
+      <c r="E6">
         <v>2504</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1601</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>6117</v>
+      </c>
+      <c r="H6">
         <v>2175</v>
-      </c>
-      <c r="G6">
-        <v>22949</v>
-      </c>
-      <c r="H6">
-        <v>6117</v>
       </c>
       <c r="J6">
         <v>102334155</v>
@@ -624,19 +624,19 @@
         <v>75621</v>
       </c>
       <c r="D7">
+        <v>25453</v>
+      </c>
+      <c r="E7">
         <v>2545</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1519</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <v>6815</v>
+      </c>
+      <c r="H7">
         <v>2093</v>
-      </c>
-      <c r="G7">
-        <v>25453</v>
-      </c>
-      <c r="H7">
-        <v>6815</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -650,19 +650,19 @@
         <v>82641</v>
       </c>
       <c r="D8">
+        <v>19377</v>
+      </c>
+      <c r="E8">
         <v>2340</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1272</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <v>6774</v>
+      </c>
+      <c r="H8">
         <v>1847</v>
-      </c>
-      <c r="G8">
-        <v>19377</v>
-      </c>
-      <c r="H8">
-        <v>6774</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -673,19 +673,19 @@
         <v>126323</v>
       </c>
       <c r="D9">
+        <v>34280</v>
+      </c>
+      <c r="E9">
         <v>3243</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2217</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <v>6979</v>
+      </c>
+      <c r="H9">
         <v>1888</v>
-      </c>
-      <c r="G9">
-        <v>34280</v>
-      </c>
-      <c r="H9">
-        <v>6979</v>
       </c>
       <c r="J9">
         <v>2.34167283484676E+16</v>
@@ -699,19 +699,19 @@
         <v>94137</v>
       </c>
       <c r="D10">
+        <v>34403</v>
+      </c>
+      <c r="E10">
         <v>3366</v>
-      </c>
-      <c r="E10">
-        <v>2545</v>
       </c>
       <c r="F10">
         <v>2545</v>
       </c>
       <c r="G10">
-        <v>34403</v>
+        <v>7718</v>
       </c>
       <c r="H10">
-        <v>7718</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -722,19 +722,19 @@
         <v>94055</v>
       </c>
       <c r="D11">
+        <v>34567</v>
+      </c>
+      <c r="E11">
         <v>3038</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2422</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <v>7348</v>
+      </c>
+      <c r="H11">
         <v>1847</v>
-      </c>
-      <c r="G11">
-        <v>34567</v>
-      </c>
-      <c r="H11">
-        <v>7348</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -745,19 +745,19 @@
         <v>126364</v>
       </c>
       <c r="D12">
+        <v>51522</v>
+      </c>
+      <c r="E12">
         <v>3777</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2791</v>
       </c>
-      <c r="F12">
+      <c r="G12">
+        <v>11782</v>
+      </c>
+      <c r="H12">
         <v>1765</v>
-      </c>
-      <c r="G12">
-        <v>51522</v>
-      </c>
-      <c r="H12">
-        <v>11782</v>
       </c>
       <c r="J12">
         <v>7.5401138047463404E+18</v>
@@ -771,19 +771,19 @@
         <v>111051</v>
       </c>
       <c r="D13">
+        <v>37810</v>
+      </c>
+      <c r="E13">
         <v>3407</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2709</v>
       </c>
-      <c r="F13">
+      <c r="G13">
+        <v>10181</v>
+      </c>
+      <c r="H13">
         <v>2052</v>
-      </c>
-      <c r="G13">
-        <v>37810</v>
-      </c>
-      <c r="H13">
-        <v>10181</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -794,19 +794,19 @@
         <v>96764</v>
       </c>
       <c r="D14">
+        <v>42737</v>
+      </c>
+      <c r="E14">
         <v>3161</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2668</v>
       </c>
-      <c r="F14">
+      <c r="G14">
+        <v>10099</v>
+      </c>
+      <c r="H14">
         <v>2258</v>
-      </c>
-      <c r="G14">
-        <v>42737</v>
-      </c>
-      <c r="H14">
-        <v>10099</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -816,20 +816,20 @@
       <c r="C15">
         <v>95779</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
         <v>4967</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2955</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15">
+        <v>15682</v>
+      </c>
+      <c r="H15" t="s">
         <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15">
-        <v>15682</v>
       </c>
       <c r="J15">
         <v>-6.2465836585876695E+18</v>

--- a/论文/timedata.xlsx
+++ b/论文/timedata.xlsx
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,7 +835,88 @@
         <v>-6.2465836585876695E+18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <f>SUM(B6:B8)/3</f>
+        <v>577718143.66666663</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C6:C8)/3</f>
+        <v>76620</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="C16:H17" si="0">SUM(D6:D8)/3</f>
+        <v>22593</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2463</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1464</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>6568.666666666667</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>2038.3333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <f>SUM(C9:C11)/3</f>
+        <v>104838.33333333333</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:H17" si="1">SUM(D9:D11)/3</f>
+        <v>34416.666666666664</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>3215.6666666666665</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2394.6666666666665</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>7348.333333333333</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>2093.3333333333335</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C18">
+        <f>SUM(C12:C14)/3</f>
+        <v>111393</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:H18" si="2">SUM(D12:D14)/3</f>
+        <v>44023</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>3448.3333333333335</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>2722.6666666666665</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>10687.333333333334</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/论文/timedata.xlsx
+++ b/论文/timedata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>F(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,7 +90,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缓存(递归)</t>
+    <t>biginteger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F(80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F(800)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F(8000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -465,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -685,7 +702,7 @@
         <v>6979</v>
       </c>
       <c r="H9">
-        <v>1888</v>
+        <v>2340</v>
       </c>
       <c r="J9">
         <v>2.34167283484676E+16</v>
@@ -734,7 +751,7 @@
         <v>7348</v>
       </c>
       <c r="H11">
-        <v>1847</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -757,7 +774,7 @@
         <v>11782</v>
       </c>
       <c r="H12">
-        <v>1765</v>
+        <v>2504</v>
       </c>
       <c r="J12">
         <v>7.5401138047463404E+18</v>
@@ -783,7 +800,7 @@
         <v>10181</v>
       </c>
       <c r="H13">
-        <v>2052</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -806,7 +823,7 @@
         <v>10099</v>
       </c>
       <c r="H14">
-        <v>2258</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -845,7 +862,7 @@
         <v>76620</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="C16:H17" si="0">SUM(D6:D8)/3</f>
+        <f t="shared" ref="D16:H16" si="0">SUM(D6:D8)/3</f>
         <v>22593</v>
       </c>
       <c r="E16">
@@ -865,7 +882,7 @@
         <v>2038.3333333333333</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C17">
         <f>SUM(C9:C11)/3</f>
         <v>104838.33333333333</v>
@@ -888,10 +905,10 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>2093.3333333333335</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C18">
         <f>SUM(C12:C14)/3</f>
         <v>111393</v>
@@ -913,8 +930,267 @@
         <v>10687.333333333334</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
-        <v>2025</v>
+        <f>SUM(H12:H14)/3</f>
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>82929</v>
+      </c>
+      <c r="E21">
+        <v>42408</v>
+      </c>
+      <c r="F21">
+        <v>46801</v>
+      </c>
+      <c r="G21">
+        <v>107397</v>
+      </c>
+      <c r="H21">
+        <v>1338933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>75703</v>
+      </c>
+      <c r="E22">
+        <v>40807</v>
+      </c>
+      <c r="F22">
+        <v>43065</v>
+      </c>
+      <c r="G22">
+        <v>95696</v>
+      </c>
+      <c r="H22">
+        <v>1164125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>90359</v>
+      </c>
+      <c r="E23">
+        <v>44338</v>
+      </c>
+      <c r="F23">
+        <v>56202</v>
+      </c>
+      <c r="G23">
+        <v>97215</v>
+      </c>
+      <c r="H23">
+        <v>1120731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>494084</v>
+      </c>
+      <c r="E24">
+        <v>469616</v>
+      </c>
+      <c r="F24">
+        <v>326378</v>
+      </c>
+      <c r="G24">
+        <v>264715</v>
+      </c>
+      <c r="H24">
+        <v>8604658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>544251</v>
+      </c>
+      <c r="E25">
+        <v>364887</v>
+      </c>
+      <c r="F25">
+        <v>350313</v>
+      </c>
+      <c r="G25">
+        <v>250962</v>
+      </c>
+      <c r="H25">
+        <v>7191418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>481439</v>
+      </c>
+      <c r="E26">
+        <v>315253</v>
+      </c>
+      <c r="F26">
+        <v>243244</v>
+      </c>
+      <c r="G26">
+        <v>200096</v>
+      </c>
+      <c r="H26">
+        <v>7817408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>5210811</v>
+      </c>
+      <c r="E27">
+        <v>3988923</v>
+      </c>
+      <c r="F27">
+        <v>3926850</v>
+      </c>
+      <c r="G27">
+        <v>1159116</v>
+      </c>
+      <c r="H27">
+        <v>105034731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>5875187</v>
+      </c>
+      <c r="E28">
+        <v>3955670</v>
+      </c>
+      <c r="F28">
+        <v>3890230</v>
+      </c>
+      <c r="G28">
+        <v>1338481</v>
+      </c>
+      <c r="H28">
+        <v>112664728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>5254452</v>
+      </c>
+      <c r="E29">
+        <v>4285004</v>
+      </c>
+      <c r="F29">
+        <v>3883702</v>
+      </c>
+      <c r="G29">
+        <v>1157721</v>
+      </c>
+      <c r="H29">
+        <v>105632805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C30">
+        <f>SUM(C21:C23)/3</f>
+        <v>82997</v>
+      </c>
+      <c r="E30">
+        <f>SUM(E21:E23)/3</f>
+        <v>42517.666666666664</v>
+      </c>
+      <c r="F30">
+        <f>SUM(F21:F23)/3</f>
+        <v>48689.333333333336</v>
+      </c>
+      <c r="G30">
+        <f>SUM(G21:G23)/3</f>
+        <v>100102.66666666667</v>
+      </c>
+      <c r="H30">
+        <f>SUM(H21:H23)/3</f>
+        <v>1207929.6666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C31">
+        <f>SUM(C24:C26)/3</f>
+        <v>506591.33333333331</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:H31" si="3">SUM(D24:D26)/3</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>383252</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>306645</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>238591</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>7871161.333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C32">
+        <f>SUM(C27:C29)/3</f>
+        <v>5446816.666666667</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:H32" si="4">SUM(D27:D29)/3</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>4076532.3333333335</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>3900260.6666666665</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>1218439.3333333333</v>
+      </c>
+      <c r="H32">
+        <f>SUM(H27:H29)/3</f>
+        <v>107777421.33333333</v>
       </c>
     </row>
   </sheetData>

--- a/论文/timedata.xlsx
+++ b/论文/timedata.xlsx
@@ -464,8 +464,8 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17:H18"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -914,7 +914,7 @@
         <v>111393</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:H18" si="2">SUM(D12:D14)/3</f>
+        <f t="shared" ref="D18:G18" si="2">SUM(D12:D14)/3</f>
         <v>44023</v>
       </c>
       <c r="E18">
@@ -1173,7 +1173,7 @@
         <v>5446816.666666667</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:H32" si="4">SUM(D27:D29)/3</f>
+        <f t="shared" ref="D32:G32" si="4">SUM(D27:D29)/3</f>
         <v>0</v>
       </c>
       <c r="E32">
